--- a/xlsx/牙買加_intext.xlsx
+++ b/xlsx/牙買加_intext.xlsx
@@ -29,7 +29,7 @@
     <t>牙買加國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_牙買加</t>
+    <t>体育运动_体育运动_南非_牙買加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%9B%BD%E5%BE%BD</t>
